--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684376.5094811314</v>
+        <v>745211.9843928319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554241</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -661,64 +661,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>196.5315760613044</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>94.41048699370604</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,22 +1265,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.0565624542425</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>30.86155971440646</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.2967440369998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>254.495051644364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.8224738943862</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>142.5677531302082</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>238.0560469814488</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>277.9969508241127</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>38.73452730914783</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>187.4664709815992</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>116.8504151109979</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>60.953092730774</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.66811582074952</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.4964282009514</v>
+        <v>281.7170166114084</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>189.5968436493439</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>123.4064771656525</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>53.3583869108809</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>41.03250833503017</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>235.5000960026869</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>314.7038612617648</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>14.17993414119096</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>139.015950317665</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>20.13349987277719</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>70.5715404991124</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6652719985049</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>75.9243664640931</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>73.83379434090358</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>14.59689039088892</v>
+        <v>14.82811972447741</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>319.5731127193978</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>164.4312074590983</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.4041478010446</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>293.9557741331911</v>
+        <v>247.1950373240953</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>15.85068629184351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>149.8794763036717</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.16790000022172</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>181.5464716967367</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>327.2640844659515</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>83.81530782185143</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4524,7 +4524,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4649,46 +4649,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4840,10 +4840,10 @@
         <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X8" t="n">
         <v>358.0940480307835</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>536.8878951967741</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>536.8878951967741</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>536.8878951967741</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y9" t="n">
-        <v>536.8878951967741</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5077,16 +5077,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2385.054692817035</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>2032.286037546921</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X11" t="n">
-        <v>1658.820279285841</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1268.68094731003</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="C13" t="n">
-        <v>369.8327295799424</v>
+        <v>183.056591814694</v>
       </c>
       <c r="D13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V13" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W13" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X13" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1160.852583904131</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.7689125078493</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C16" t="n">
-        <v>369.8327295799424</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D16" t="n">
-        <v>369.8327295799424</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E16" t="n">
-        <v>369.8327295799424</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F16" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y16" t="n">
-        <v>538.7689125078493</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1327.013560149308</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>2090.6186503862</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.15289212512</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1327.013560149308</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.7460229006679</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
         <v>200.8329293182748</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>569.538602044198</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>569.538602044198</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1995.909162857192</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
         <v>882.8926947117852</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y20" t="n">
-        <v>1995.909162857192</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
@@ -5825,31 +5825,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5946,16 +5946,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1394.624369323446</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C23" t="n">
-        <v>1394.624369323446</v>
+        <v>1488.206397918726</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.358670716696</v>
+        <v>1488.206397918726</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W23" t="n">
-        <v>1784.763701299258</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X23" t="n">
-        <v>1784.763701299258</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y23" t="n">
-        <v>1394.624369323446</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>686.6820060902423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>686.6820060902423</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W25" t="n">
-        <v>686.6820060902423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>686.6820060902423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>686.6820060902423</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1004.183115213127</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C26" t="n">
-        <v>1004.183115213127</v>
+        <v>1116.984198029372</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6259,19 +6259,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2451.619748063703</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2120.556860720133</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W26" t="n">
-        <v>1767.788205450018</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X26" t="n">
-        <v>1394.322447188938</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y26" t="n">
-        <v>1004.183115213127</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>119.6589918292309</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714565</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1289.01781586839</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C29" t="n">
-        <v>1289.01781586839</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1289.01781586839</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>903.2295632701459</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>492.2436584805384</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>74.27985037872526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.48357412947</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.01781586839</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.01781586839</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D31" t="n">
-        <v>370.8558756644252</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>282.9757387303721</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1241.158393318536</v>
+        <v>885.3850306156801</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>516.4225136752684</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W32" t="n">
-        <v>2391.363323619549</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X32" t="n">
-        <v>2017.897565358469</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y32" t="n">
-        <v>1627.758233382657</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>53.94298182036446</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="C34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="D34" t="n">
-        <v>215.5772630464454</v>
+        <v>363.7239216122613</v>
       </c>
       <c r="E34" t="n">
-        <v>215.5772630464454</v>
+        <v>215.8108280298682</v>
       </c>
       <c r="F34" t="n">
-        <v>68.68731554853508</v>
+        <v>68.92088053195781</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036446</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y34" t="n">
-        <v>365.6939024587812</v>
+        <v>513.840561024597</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1363.553390680693</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C35" t="n">
-        <v>1363.553390680693</v>
+        <v>1447.992776948344</v>
       </c>
       <c r="D35" t="n">
-        <v>1363.553390680693</v>
+        <v>1089.727078341594</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>703.9388257433493</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>703.9388257433493</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2081.216118088385</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>1750.153230744814</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W35" t="n">
-        <v>1750.153230744814</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X35" t="n">
-        <v>1750.153230744814</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y35" t="n">
-        <v>1750.153230744814</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7037,28 +7037,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>658.0237844073995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>443.7353612255621</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>443.7353612255621</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1993.546461473041</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C38" t="n">
-        <v>1993.546461473041</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D38" t="n">
-        <v>1635.28076286629</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E38" t="n">
-        <v>1249.492510268046</v>
+        <v>784.2956346822975</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
         <v>534.603677789272</v>
@@ -7171,31 +7171,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7204,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.546461473041</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1993.546461473041</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X38" t="n">
-        <v>1993.546461473041</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y38" t="n">
-        <v>1993.546461473041</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1679.795701438247</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.833184497836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2048.575150942547</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.806495672433</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>1679.795701438247</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.795701438247</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.1394333084171</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>138.9610626286692</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084171</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.1394333084171</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1452.061221751178</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.14692331494</v>
+        <v>1452.061221751178</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W46" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,10 +22549,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,7 +22561,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,10 +22603,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>81.18038932886157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>124.4792166637132</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>9.241409142173097</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23080,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>291.8274516623475</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.6384207066771</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>174.8211360628979</v>
       </c>
     </row>
     <row r="10">
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>194.4370976264807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>73.25720682577088</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>20.79299912382614</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>143.7141211117695</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>127.2168447895588</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>71.24401789330028</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>109.8809457090645</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>37.56863447648504</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>248.4224766600096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>325.2848459252796</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>111.5787052778783</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>55.14106060940506</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.74151045510217</v>
+        <v>104.5209220446451</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24186,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>96.92615468724713</v>
+        <v>78.18068774251026</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>258.5238929066093</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>295.8825818065321</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>184.0025971230541</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114111</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>39.97918035891814</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>237.0442333670983</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>80.36219811415344</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>243.7178913458155</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>303.78927289158</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>96.73826175993851</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6166022434728</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>278.7586751565898</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>275.4071743765094</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>152.712911868162</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>94.2110573013972</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>86.79296004919098</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>77.26104417911323</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>112.9202716085203</v>
+        <v>159.6810084176161</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>106.7500797718389</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>353.8804143866255</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>17.36734479495615</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>83.14190225882919</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>296.2020293175727</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>173.1365699239462</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9453835684545</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.3944062362</v>
+        <v>457001.3944062361</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778471</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
   </sheetData>
@@ -26334,16 +26334,16 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="K2" t="n">
-        <v>231322.0880126061</v>
-      </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,10 +26352,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361483</v>
@@ -26438,13 +26438,13 @@
         <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361485</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26490,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962635</v>
+        <v>-5891.074401589934</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.35712995783</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.3571299578</v>
       </c>
       <c r="E6" t="n">
-        <v>-266194.9958739802</v>
+        <v>-260733.4235027427</v>
       </c>
       <c r="F6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="G6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402534</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699098</v>
+        <v>109052.807941147</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="M6" t="n">
-        <v>58677.81749495782</v>
+        <v>64139.38986619509</v>
       </c>
       <c r="N6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.1781690161</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,25 +26758,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36615,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>130.3926104730631</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
